--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H2">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I2">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J2">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>3724.259966362892</v>
+        <v>11750.82207075968</v>
       </c>
       <c r="R2">
-        <v>33518.33969726602</v>
+        <v>105757.3986368371</v>
       </c>
       <c r="S2">
-        <v>0.101758101573161</v>
+        <v>0.1972057358980056</v>
       </c>
       <c r="T2">
-        <v>0.101758101573161</v>
+        <v>0.1972057358980057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H3">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I3">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J3">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>6135.39865919039</v>
+        <v>11394.08267873176</v>
       </c>
       <c r="R3">
-        <v>55218.5879327135</v>
+        <v>102546.7441085859</v>
       </c>
       <c r="S3">
-        <v>0.1676377389313797</v>
+        <v>0.191218830989988</v>
       </c>
       <c r="T3">
-        <v>0.1676377389313797</v>
+        <v>0.1912188309899881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H4">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I4">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J4">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>5430.289949375992</v>
+        <v>11602.89357777804</v>
       </c>
       <c r="R4">
-        <v>48872.60954438393</v>
+        <v>104426.0422000024</v>
       </c>
       <c r="S4">
-        <v>0.1483720259141744</v>
+        <v>0.1947231566245676</v>
       </c>
       <c r="T4">
-        <v>0.1483720259141745</v>
+        <v>0.1947231566245676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H5">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I5">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J5">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>2461.446849060552</v>
+        <v>4629.22711790903</v>
       </c>
       <c r="R5">
-        <v>22153.02164154497</v>
+        <v>41663.04406118127</v>
       </c>
       <c r="S5">
-        <v>0.06725420909009516</v>
+        <v>0.07768904464121762</v>
       </c>
       <c r="T5">
-        <v>0.06725420909009518</v>
+        <v>0.07768904464121763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>1738.924029106987</v>
+        <v>2954.420383629476</v>
       </c>
       <c r="R6">
-        <v>15650.31626196288</v>
+        <v>26589.78345266528</v>
       </c>
       <c r="S6">
-        <v>0.04751268965648708</v>
+        <v>0.04958194774776744</v>
       </c>
       <c r="T6">
-        <v>0.04751268965648708</v>
+        <v>0.04958194774776745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>2864.728094434365</v>
@@ -883,10 +883,10 @@
         <v>25782.55284990928</v>
       </c>
       <c r="S7">
-        <v>0.07827307842251076</v>
+        <v>0.04807670549419674</v>
       </c>
       <c r="T7">
-        <v>0.07827307842251077</v>
+        <v>0.04807670549419676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>2535.500143189511</v>
+        <v>2917.227840643733</v>
       </c>
       <c r="R8">
-        <v>22819.5012887056</v>
+        <v>26255.0505657936</v>
       </c>
       <c r="S8">
-        <v>0.06927757015883412</v>
+        <v>0.04895777160372791</v>
       </c>
       <c r="T8">
-        <v>0.06927757015883414</v>
+        <v>0.04895777160372791</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>1149.293849210311</v>
+        <v>1163.891587775236</v>
       </c>
       <c r="R9">
-        <v>10343.6446428928</v>
+        <v>10475.02428997712</v>
       </c>
       <c r="S9">
-        <v>0.03140220105514417</v>
+        <v>0.01953276934078153</v>
       </c>
       <c r="T9">
-        <v>0.03140220105514418</v>
+        <v>0.01953276934078153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H10">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I10">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J10">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>318.726593668456</v>
+        <v>698.1148353351715</v>
       </c>
       <c r="R10">
-        <v>2868.539343016104</v>
+        <v>6283.033518016544</v>
       </c>
       <c r="S10">
-        <v>0.008708579257493777</v>
+        <v>0.01171596753100076</v>
       </c>
       <c r="T10">
-        <v>0.008708579257493779</v>
+        <v>0.01171596753100076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H11">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I11">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J11">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>525.0747082920527</v>
+        <v>676.9209937108604</v>
       </c>
       <c r="R11">
-        <v>4725.672374628474</v>
+        <v>6092.288943397744</v>
       </c>
       <c r="S11">
-        <v>0.01434663691108031</v>
+        <v>0.01136028627662893</v>
       </c>
       <c r="T11">
-        <v>0.01434663691108031</v>
+        <v>0.01136028627662893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H12">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I12">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J12">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>464.7306669858867</v>
+        <v>689.3264224992533</v>
       </c>
       <c r="R12">
-        <v>4182.57600287298</v>
+        <v>6203.93780249328</v>
       </c>
       <c r="S12">
-        <v>0.01269785429653993</v>
+        <v>0.0115684778140902</v>
       </c>
       <c r="T12">
-        <v>0.01269785429653993</v>
+        <v>0.0115684778140902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H13">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I13">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J13">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>210.6535464180267</v>
+        <v>275.0217906192196</v>
       </c>
       <c r="R13">
-        <v>1895.88191776224</v>
+        <v>2475.196115572976</v>
       </c>
       <c r="S13">
-        <v>0.005755695135881245</v>
+        <v>0.00461549619936881</v>
       </c>
       <c r="T13">
-        <v>0.005755695135881245</v>
+        <v>0.004615496199368811</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H14">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I14">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J14">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>1896.626439214392</v>
+        <v>2378.37435270333</v>
       </c>
       <c r="R14">
-        <v>17069.63795292953</v>
+        <v>21405.36917432997</v>
       </c>
       <c r="S14">
-        <v>0.05182159881185777</v>
+        <v>0.03991457462647808</v>
       </c>
       <c r="T14">
-        <v>0.05182159881185779</v>
+        <v>0.0399145746264781</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H15">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I15">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J15">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>3124.529280243902</v>
+        <v>2306.170057932374</v>
       </c>
       <c r="R15">
-        <v>28120.76352219512</v>
+        <v>20755.53052139137</v>
       </c>
       <c r="S15">
-        <v>0.08537163644295229</v>
+        <v>0.03870282101472569</v>
       </c>
       <c r="T15">
-        <v>0.08537163644295231</v>
+        <v>0.0387028210147257</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H16">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I16">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J16">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>2765.44376160854</v>
+        <v>2348.433525446907</v>
       </c>
       <c r="R16">
-        <v>24888.99385447686</v>
+        <v>21135.90172902216</v>
       </c>
       <c r="S16">
-        <v>0.07556032869086936</v>
+        <v>0.03941209889865726</v>
       </c>
       <c r="T16">
-        <v>0.07556032869086939</v>
+        <v>0.03941209889865727</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H17">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I17">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J17">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>1253.522905171521</v>
+        <v>936.958706699386</v>
       </c>
       <c r="R17">
-        <v>11281.70614654368</v>
+        <v>8432.628360294473</v>
       </c>
       <c r="S17">
-        <v>0.03425005565153889</v>
+        <v>0.01572431529879769</v>
       </c>
       <c r="T17">
-        <v>0.03425005565153889</v>
+        <v>0.0157243152987977</v>
       </c>
     </row>
   </sheetData>
